--- a/cw/client_j_organazations/names.xlsx
+++ b/cw/client_j_organazations/names.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18220" windowHeight="7320"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18220" windowHeight="7320" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -20336,8 +20337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6828"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A6482"/>
+    <sheetView topLeftCell="A6225" workbookViewId="0">
+      <selection activeCell="B6264" sqref="B6264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -57811,1431 +57812,717 @@
       <c r="B6244" s="2"/>
     </row>
     <row r="6245" spans="1:2">
-      <c r="A6245" s="2" t="s">
-        <v>5868</v>
-      </c>
       <c r="B6245" s="2"/>
     </row>
     <row r="6246" spans="1:2">
-      <c r="A6246" s="2" t="s">
-        <v>5869</v>
-      </c>
       <c r="B6246" s="2"/>
     </row>
     <row r="6247" spans="1:2">
-      <c r="A6247" s="2" t="s">
-        <v>5870</v>
-      </c>
       <c r="B6247" s="2"/>
     </row>
     <row r="6248" spans="1:2">
-      <c r="A6248" s="2" t="s">
-        <v>5871</v>
-      </c>
       <c r="B6248" s="2"/>
     </row>
     <row r="6249" spans="1:2">
-      <c r="A6249" s="2" t="s">
-        <v>5872</v>
-      </c>
       <c r="B6249" s="2"/>
     </row>
     <row r="6250" spans="1:2">
-      <c r="A6250" s="2" t="s">
-        <v>5873</v>
-      </c>
       <c r="B6250" s="2"/>
     </row>
     <row r="6251" spans="1:2">
-      <c r="A6251" s="2" t="s">
-        <v>5874</v>
-      </c>
       <c r="B6251" s="2"/>
     </row>
     <row r="6252" spans="1:2">
-      <c r="A6252" s="2" t="s">
-        <v>5875</v>
-      </c>
       <c r="B6252" s="2"/>
     </row>
     <row r="6253" spans="1:2">
-      <c r="A6253" s="2" t="s">
-        <v>5876</v>
-      </c>
       <c r="B6253" s="2"/>
     </row>
     <row r="6254" spans="1:2">
-      <c r="A6254" s="2" t="s">
-        <v>5877</v>
-      </c>
       <c r="B6254" s="2"/>
     </row>
     <row r="6255" spans="1:2">
-      <c r="A6255" s="2" t="s">
-        <v>5878</v>
-      </c>
       <c r="B6255" s="2"/>
     </row>
     <row r="6256" spans="1:2">
-      <c r="A6256" s="2" t="s">
-        <v>5879</v>
-      </c>
       <c r="B6256" s="2"/>
     </row>
-    <row r="6257" spans="1:2">
-      <c r="A6257" s="2" t="s">
-        <v>5880</v>
-      </c>
+    <row r="6257" spans="2:2">
       <c r="B6257" s="2"/>
     </row>
-    <row r="6258" spans="1:2">
-      <c r="A6258" s="2" t="s">
-        <v>5881</v>
-      </c>
+    <row r="6258" spans="2:2">
       <c r="B6258" s="2"/>
     </row>
-    <row r="6259" spans="1:2">
-      <c r="A6259" s="2" t="s">
-        <v>5882</v>
-      </c>
+    <row r="6259" spans="2:2">
       <c r="B6259" s="2"/>
     </row>
-    <row r="6260" spans="1:2">
-      <c r="A6260" s="2" t="s">
-        <v>5883</v>
-      </c>
+    <row r="6260" spans="2:2">
       <c r="B6260" s="2"/>
     </row>
-    <row r="6261" spans="1:2">
-      <c r="A6261" s="2" t="s">
-        <v>5884</v>
-      </c>
+    <row r="6261" spans="2:2">
       <c r="B6261" s="2"/>
     </row>
-    <row r="6262" spans="1:2">
-      <c r="A6262" s="2" t="s">
-        <v>5885</v>
-      </c>
+    <row r="6262" spans="2:2">
       <c r="B6262" s="2"/>
     </row>
-    <row r="6263" spans="1:2">
-      <c r="A6263" s="2" t="s">
-        <v>5886</v>
-      </c>
+    <row r="6263" spans="2:2">
       <c r="B6263" s="2"/>
     </row>
-    <row r="6264" spans="1:2">
-      <c r="A6264" s="2" t="s">
-        <v>5887</v>
-      </c>
+    <row r="6264" spans="2:2">
       <c r="B6264" s="2"/>
     </row>
-    <row r="6265" spans="1:2">
-      <c r="A6265" s="2" t="s">
-        <v>5888</v>
-      </c>
+    <row r="6265" spans="2:2">
       <c r="B6265" s="2"/>
     </row>
-    <row r="6266" spans="1:2">
-      <c r="A6266" s="2" t="s">
-        <v>5889</v>
-      </c>
+    <row r="6266" spans="2:2">
       <c r="B6266" s="2"/>
     </row>
-    <row r="6267" spans="1:2">
-      <c r="A6267" s="2" t="s">
-        <v>5890</v>
-      </c>
+    <row r="6267" spans="2:2">
       <c r="B6267" s="2"/>
     </row>
-    <row r="6268" spans="1:2">
-      <c r="A6268" s="2" t="s">
-        <v>5891</v>
-      </c>
+    <row r="6268" spans="2:2">
       <c r="B6268" s="2"/>
     </row>
-    <row r="6269" spans="1:2">
-      <c r="A6269" s="2" t="s">
-        <v>5892</v>
-      </c>
+    <row r="6269" spans="2:2">
       <c r="B6269" s="2"/>
     </row>
-    <row r="6270" spans="1:2">
-      <c r="A6270" s="2" t="s">
-        <v>5893</v>
-      </c>
+    <row r="6270" spans="2:2">
       <c r="B6270" s="2"/>
     </row>
-    <row r="6271" spans="1:2">
-      <c r="A6271" s="2" t="s">
-        <v>5894</v>
-      </c>
+    <row r="6271" spans="2:2">
       <c r="B6271" s="2"/>
     </row>
-    <row r="6272" spans="1:2">
-      <c r="A6272" s="2" t="s">
-        <v>5895</v>
-      </c>
+    <row r="6272" spans="2:2">
       <c r="B6272" s="2"/>
     </row>
-    <row r="6273" spans="1:2">
-      <c r="A6273" s="2" t="s">
-        <v>5896</v>
-      </c>
+    <row r="6273" spans="2:2">
       <c r="B6273" s="2"/>
     </row>
-    <row r="6274" spans="1:2">
-      <c r="A6274" s="2" t="s">
-        <v>5897</v>
-      </c>
+    <row r="6274" spans="2:2">
       <c r="B6274" s="2"/>
     </row>
-    <row r="6275" spans="1:2">
-      <c r="A6275" s="2" t="s">
-        <v>5898</v>
-      </c>
+    <row r="6275" spans="2:2">
       <c r="B6275" s="2"/>
     </row>
-    <row r="6276" spans="1:2">
-      <c r="A6276" s="2" t="s">
-        <v>5899</v>
-      </c>
+    <row r="6276" spans="2:2">
       <c r="B6276" s="2"/>
     </row>
-    <row r="6277" spans="1:2">
-      <c r="A6277" s="2" t="s">
-        <v>5900</v>
-      </c>
+    <row r="6277" spans="2:2">
       <c r="B6277" s="2"/>
     </row>
-    <row r="6278" spans="1:2">
-      <c r="A6278" s="2" t="s">
-        <v>5901</v>
-      </c>
+    <row r="6278" spans="2:2">
       <c r="B6278" s="2"/>
     </row>
-    <row r="6279" spans="1:2">
-      <c r="A6279" s="2" t="s">
-        <v>5902</v>
-      </c>
+    <row r="6279" spans="2:2">
       <c r="B6279" s="2"/>
     </row>
-    <row r="6280" spans="1:2">
-      <c r="A6280" s="2" t="s">
-        <v>5903</v>
-      </c>
+    <row r="6280" spans="2:2">
       <c r="B6280" s="2"/>
     </row>
-    <row r="6281" spans="1:2">
-      <c r="A6281" s="2" t="s">
-        <v>5904</v>
-      </c>
+    <row r="6281" spans="2:2">
       <c r="B6281" s="2"/>
     </row>
-    <row r="6282" spans="1:2">
-      <c r="A6282" s="2" t="s">
-        <v>5905</v>
-      </c>
+    <row r="6282" spans="2:2">
       <c r="B6282" s="2"/>
     </row>
-    <row r="6283" spans="1:2">
-      <c r="A6283" s="2" t="s">
-        <v>5906</v>
-      </c>
+    <row r="6283" spans="2:2">
       <c r="B6283" s="2"/>
     </row>
-    <row r="6284" spans="1:2">
-      <c r="A6284" s="2" t="s">
-        <v>4872</v>
-      </c>
+    <row r="6284" spans="2:2">
       <c r="B6284" s="2"/>
     </row>
-    <row r="6285" spans="1:2">
-      <c r="A6285" s="2" t="s">
-        <v>5907</v>
-      </c>
+    <row r="6285" spans="2:2">
       <c r="B6285" s="2"/>
     </row>
-    <row r="6286" spans="1:2">
-      <c r="A6286" s="2" t="s">
-        <v>5908</v>
-      </c>
+    <row r="6286" spans="2:2">
       <c r="B6286" s="2"/>
     </row>
-    <row r="6287" spans="1:2">
-      <c r="A6287" s="2" t="s">
-        <v>5909</v>
-      </c>
+    <row r="6287" spans="2:2">
       <c r="B6287" s="2"/>
     </row>
-    <row r="6288" spans="1:2">
-      <c r="A6288" s="2" t="s">
-        <v>5910</v>
-      </c>
+    <row r="6288" spans="2:2">
       <c r="B6288" s="2"/>
     </row>
-    <row r="6289" spans="1:2">
-      <c r="A6289" s="2" t="s">
-        <v>5911</v>
-      </c>
+    <row r="6289" spans="2:2">
       <c r="B6289" s="2"/>
     </row>
-    <row r="6290" spans="1:2">
-      <c r="A6290" s="2" t="s">
-        <v>5912</v>
-      </c>
+    <row r="6290" spans="2:2">
       <c r="B6290" s="2"/>
     </row>
-    <row r="6291" spans="1:2">
-      <c r="A6291" s="2" t="s">
-        <v>5913</v>
-      </c>
+    <row r="6291" spans="2:2">
       <c r="B6291" s="2"/>
     </row>
-    <row r="6292" spans="1:2">
-      <c r="A6292" s="2" t="s">
-        <v>5914</v>
-      </c>
+    <row r="6292" spans="2:2">
       <c r="B6292" s="2"/>
     </row>
-    <row r="6293" spans="1:2">
-      <c r="A6293" s="2" t="s">
-        <v>5915</v>
-      </c>
+    <row r="6293" spans="2:2">
       <c r="B6293" s="2"/>
     </row>
-    <row r="6294" spans="1:2">
-      <c r="A6294" s="2" t="s">
-        <v>5916</v>
-      </c>
+    <row r="6294" spans="2:2">
       <c r="B6294" s="2"/>
     </row>
-    <row r="6295" spans="1:2">
-      <c r="A6295" s="2" t="s">
-        <v>5917</v>
-      </c>
+    <row r="6295" spans="2:2">
       <c r="B6295" s="2"/>
     </row>
-    <row r="6296" spans="1:2">
-      <c r="A6296" s="2" t="s">
-        <v>5918</v>
-      </c>
+    <row r="6296" spans="2:2">
       <c r="B6296" s="2"/>
     </row>
-    <row r="6297" spans="1:2">
-      <c r="A6297" s="2" t="s">
-        <v>5919</v>
-      </c>
+    <row r="6297" spans="2:2">
       <c r="B6297" s="2"/>
     </row>
-    <row r="6298" spans="1:2">
-      <c r="A6298" s="2" t="s">
-        <v>5920</v>
-      </c>
+    <row r="6298" spans="2:2">
       <c r="B6298" s="2"/>
     </row>
-    <row r="6299" spans="1:2">
-      <c r="A6299" s="2" t="s">
-        <v>5921</v>
-      </c>
+    <row r="6299" spans="2:2">
       <c r="B6299" s="2"/>
     </row>
-    <row r="6300" spans="1:2">
-      <c r="A6300" s="2" t="s">
-        <v>5922</v>
-      </c>
+    <row r="6300" spans="2:2">
       <c r="B6300" s="2"/>
     </row>
-    <row r="6301" spans="1:2">
-      <c r="A6301" s="2" t="s">
-        <v>5923</v>
-      </c>
+    <row r="6301" spans="2:2">
       <c r="B6301" s="2"/>
     </row>
-    <row r="6302" spans="1:2">
-      <c r="A6302" s="2" t="s">
-        <v>5924</v>
-      </c>
+    <row r="6302" spans="2:2">
       <c r="B6302" s="2"/>
     </row>
-    <row r="6303" spans="1:2">
-      <c r="A6303" s="2" t="s">
-        <v>5925</v>
-      </c>
+    <row r="6303" spans="2:2">
       <c r="B6303" s="2"/>
     </row>
-    <row r="6304" spans="1:2">
-      <c r="A6304" s="2" t="s">
-        <v>5926</v>
-      </c>
+    <row r="6304" spans="2:2">
       <c r="B6304" s="2"/>
     </row>
-    <row r="6305" spans="1:2">
-      <c r="A6305" s="2" t="s">
-        <v>5927</v>
-      </c>
+    <row r="6305" spans="2:2">
       <c r="B6305" s="2"/>
     </row>
-    <row r="6306" spans="1:2">
-      <c r="A6306" s="2" t="s">
-        <v>5928</v>
-      </c>
+    <row r="6306" spans="2:2">
       <c r="B6306" s="2"/>
     </row>
-    <row r="6307" spans="1:2">
-      <c r="A6307" s="2" t="s">
-        <v>5929</v>
-      </c>
+    <row r="6307" spans="2:2">
       <c r="B6307" s="2"/>
     </row>
-    <row r="6308" spans="1:2">
-      <c r="A6308" s="2" t="s">
-        <v>5930</v>
-      </c>
+    <row r="6308" spans="2:2">
       <c r="B6308" s="2"/>
     </row>
-    <row r="6309" spans="1:2">
-      <c r="A6309" s="2" t="s">
-        <v>5931</v>
-      </c>
+    <row r="6309" spans="2:2">
       <c r="B6309" s="2"/>
     </row>
-    <row r="6310" spans="1:2">
-      <c r="A6310" s="2" t="s">
-        <v>5932</v>
-      </c>
+    <row r="6310" spans="2:2">
       <c r="B6310" s="2"/>
     </row>
-    <row r="6311" spans="1:2">
-      <c r="A6311" s="2" t="s">
-        <v>3742</v>
-      </c>
+    <row r="6311" spans="2:2">
       <c r="B6311" s="2"/>
     </row>
-    <row r="6312" spans="1:2">
-      <c r="A6312" s="2" t="s">
-        <v>5933</v>
-      </c>
+    <row r="6312" spans="2:2">
       <c r="B6312" s="2"/>
     </row>
-    <row r="6313" spans="1:2">
-      <c r="A6313" s="2" t="s">
-        <v>5934</v>
-      </c>
+    <row r="6313" spans="2:2">
       <c r="B6313" s="2"/>
     </row>
-    <row r="6314" spans="1:2">
-      <c r="A6314" s="2" t="s">
-        <v>5935</v>
-      </c>
+    <row r="6314" spans="2:2">
       <c r="B6314" s="2"/>
     </row>
-    <row r="6315" spans="1:2">
-      <c r="A6315" s="2" t="s">
-        <v>5936</v>
-      </c>
+    <row r="6315" spans="2:2">
       <c r="B6315" s="2"/>
     </row>
-    <row r="6316" spans="1:2">
-      <c r="A6316" s="2" t="s">
-        <v>5937</v>
-      </c>
+    <row r="6316" spans="2:2">
       <c r="B6316" s="2"/>
     </row>
-    <row r="6317" spans="1:2">
-      <c r="A6317" s="2" t="s">
-        <v>5938</v>
-      </c>
+    <row r="6317" spans="2:2">
       <c r="B6317" s="2"/>
     </row>
-    <row r="6318" spans="1:2">
-      <c r="A6318" s="2" t="s">
-        <v>5939</v>
-      </c>
+    <row r="6318" spans="2:2">
       <c r="B6318" s="2"/>
     </row>
-    <row r="6319" spans="1:2">
-      <c r="A6319" s="2" t="s">
-        <v>5940</v>
-      </c>
+    <row r="6319" spans="2:2">
       <c r="B6319" s="2"/>
     </row>
-    <row r="6320" spans="1:2">
-      <c r="A6320" s="2" t="s">
-        <v>5941</v>
-      </c>
+    <row r="6320" spans="2:2">
       <c r="B6320" s="2"/>
     </row>
-    <row r="6321" spans="1:2">
-      <c r="A6321" s="2" t="s">
-        <v>5942</v>
-      </c>
+    <row r="6321" spans="2:2">
       <c r="B6321" s="2"/>
     </row>
-    <row r="6322" spans="1:2">
-      <c r="A6322" s="2" t="s">
-        <v>5943</v>
-      </c>
+    <row r="6322" spans="2:2">
       <c r="B6322" s="2"/>
     </row>
-    <row r="6323" spans="1:2">
-      <c r="A6323" s="2" t="s">
-        <v>5944</v>
-      </c>
+    <row r="6323" spans="2:2">
       <c r="B6323" s="2"/>
     </row>
-    <row r="6324" spans="1:2">
-      <c r="A6324" s="2" t="s">
-        <v>5945</v>
-      </c>
+    <row r="6324" spans="2:2">
       <c r="B6324" s="2"/>
     </row>
-    <row r="6325" spans="1:2">
-      <c r="A6325" s="2" t="s">
-        <v>5946</v>
-      </c>
+    <row r="6325" spans="2:2">
       <c r="B6325" s="2"/>
     </row>
-    <row r="6326" spans="1:2">
-      <c r="A6326" s="2" t="s">
-        <v>5947</v>
-      </c>
+    <row r="6326" spans="2:2">
       <c r="B6326" s="2"/>
     </row>
-    <row r="6327" spans="1:2">
-      <c r="A6327" s="2" t="s">
-        <v>5948</v>
-      </c>
+    <row r="6327" spans="2:2">
       <c r="B6327" s="2"/>
     </row>
-    <row r="6328" spans="1:2">
-      <c r="A6328" s="2" t="s">
-        <v>5949</v>
-      </c>
+    <row r="6328" spans="2:2">
       <c r="B6328" s="2"/>
     </row>
-    <row r="6329" spans="1:2">
-      <c r="A6329" s="2" t="s">
-        <v>5950</v>
-      </c>
+    <row r="6329" spans="2:2">
       <c r="B6329" s="2"/>
     </row>
-    <row r="6330" spans="1:2">
-      <c r="A6330" s="2" t="s">
-        <v>5951</v>
-      </c>
+    <row r="6330" spans="2:2">
       <c r="B6330" s="2"/>
     </row>
-    <row r="6331" spans="1:2">
-      <c r="A6331" s="2" t="s">
-        <v>5952</v>
-      </c>
+    <row r="6331" spans="2:2">
       <c r="B6331" s="2"/>
     </row>
-    <row r="6332" spans="1:2">
-      <c r="A6332" s="2" t="s">
-        <v>5953</v>
-      </c>
+    <row r="6332" spans="2:2">
       <c r="B6332" s="2"/>
     </row>
-    <row r="6333" spans="1:2">
-      <c r="A6333" s="2" t="s">
-        <v>5954</v>
-      </c>
+    <row r="6333" spans="2:2">
       <c r="B6333" s="2"/>
     </row>
-    <row r="6334" spans="1:2">
-      <c r="A6334" s="2" t="s">
-        <v>5955</v>
-      </c>
+    <row r="6334" spans="2:2">
       <c r="B6334" s="2"/>
     </row>
-    <row r="6335" spans="1:2">
-      <c r="A6335" s="2" t="s">
-        <v>5956</v>
-      </c>
+    <row r="6335" spans="2:2">
       <c r="B6335" s="2"/>
     </row>
-    <row r="6336" spans="1:2">
-      <c r="A6336" s="2" t="s">
-        <v>5957</v>
-      </c>
+    <row r="6336" spans="2:2">
       <c r="B6336" s="2"/>
     </row>
-    <row r="6337" spans="1:2">
-      <c r="A6337" s="2" t="s">
-        <v>5958</v>
-      </c>
+    <row r="6337" spans="2:2">
       <c r="B6337" s="2"/>
     </row>
-    <row r="6338" spans="1:2">
-      <c r="A6338" s="2" t="s">
-        <v>5959</v>
-      </c>
+    <row r="6338" spans="2:2">
       <c r="B6338" s="2"/>
     </row>
-    <row r="6339" spans="1:2">
-      <c r="A6339" s="2" t="s">
-        <v>5960</v>
-      </c>
+    <row r="6339" spans="2:2">
       <c r="B6339" s="2"/>
     </row>
-    <row r="6340" spans="1:2">
-      <c r="A6340" s="2" t="s">
-        <v>5961</v>
-      </c>
+    <row r="6340" spans="2:2">
       <c r="B6340" s="2"/>
     </row>
-    <row r="6341" spans="1:2">
-      <c r="A6341" s="2" t="s">
-        <v>5962</v>
-      </c>
+    <row r="6341" spans="2:2">
       <c r="B6341" s="2"/>
     </row>
-    <row r="6342" spans="1:2">
-      <c r="A6342" s="2" t="s">
-        <v>5963</v>
-      </c>
+    <row r="6342" spans="2:2">
       <c r="B6342" s="2"/>
     </row>
-    <row r="6343" spans="1:2">
-      <c r="A6343" s="2" t="s">
-        <v>5964</v>
-      </c>
+    <row r="6343" spans="2:2">
       <c r="B6343" s="2"/>
     </row>
-    <row r="6344" spans="1:2">
-      <c r="A6344" s="2" t="s">
-        <v>5965</v>
-      </c>
+    <row r="6344" spans="2:2">
       <c r="B6344" s="2"/>
     </row>
-    <row r="6345" spans="1:2">
-      <c r="A6345" s="2" t="s">
-        <v>5966</v>
-      </c>
+    <row r="6345" spans="2:2">
       <c r="B6345" s="2"/>
     </row>
-    <row r="6346" spans="1:2">
-      <c r="A6346" s="2" t="s">
-        <v>5967</v>
-      </c>
+    <row r="6346" spans="2:2">
       <c r="B6346" s="2"/>
     </row>
-    <row r="6347" spans="1:2">
-      <c r="A6347" s="2" t="s">
-        <v>5968</v>
-      </c>
+    <row r="6347" spans="2:2">
       <c r="B6347" s="2"/>
     </row>
-    <row r="6348" spans="1:2">
-      <c r="A6348" s="2" t="s">
-        <v>5969</v>
-      </c>
+    <row r="6348" spans="2:2">
       <c r="B6348" s="2"/>
     </row>
-    <row r="6349" spans="1:2">
-      <c r="A6349" s="2" t="s">
-        <v>5970</v>
-      </c>
+    <row r="6349" spans="2:2">
       <c r="B6349" s="2"/>
     </row>
-    <row r="6350" spans="1:2">
-      <c r="A6350" s="2" t="s">
-        <v>5971</v>
-      </c>
+    <row r="6350" spans="2:2">
       <c r="B6350" s="2"/>
     </row>
-    <row r="6351" spans="1:2">
-      <c r="A6351" s="2" t="s">
-        <v>5972</v>
-      </c>
+    <row r="6351" spans="2:2">
       <c r="B6351" s="2"/>
     </row>
-    <row r="6352" spans="1:2">
-      <c r="A6352" s="2" t="s">
-        <v>5973</v>
-      </c>
+    <row r="6352" spans="2:2">
       <c r="B6352" s="2"/>
     </row>
-    <row r="6353" spans="1:2">
-      <c r="A6353" s="2" t="s">
-        <v>5974</v>
-      </c>
+    <row r="6353" spans="2:2">
       <c r="B6353" s="2"/>
     </row>
-    <row r="6354" spans="1:2">
-      <c r="A6354" s="2" t="s">
-        <v>5975</v>
-      </c>
+    <row r="6354" spans="2:2">
       <c r="B6354" s="2"/>
     </row>
-    <row r="6355" spans="1:2">
-      <c r="A6355" s="2" t="s">
-        <v>5976</v>
-      </c>
+    <row r="6355" spans="2:2">
       <c r="B6355" s="2"/>
     </row>
-    <row r="6356" spans="1:2">
-      <c r="A6356" s="2" t="s">
-        <v>5977</v>
-      </c>
+    <row r="6356" spans="2:2">
       <c r="B6356" s="2"/>
     </row>
-    <row r="6357" spans="1:2">
-      <c r="A6357" s="2" t="s">
-        <v>5978</v>
-      </c>
+    <row r="6357" spans="2:2">
       <c r="B6357" s="2"/>
     </row>
-    <row r="6358" spans="1:2">
-      <c r="A6358" s="2" t="s">
-        <v>5979</v>
-      </c>
+    <row r="6358" spans="2:2">
       <c r="B6358" s="2"/>
     </row>
-    <row r="6359" spans="1:2">
-      <c r="A6359" s="2" t="s">
-        <v>5980</v>
-      </c>
+    <row r="6359" spans="2:2">
       <c r="B6359" s="2"/>
     </row>
-    <row r="6360" spans="1:2">
-      <c r="A6360" s="2" t="s">
-        <v>5981</v>
-      </c>
+    <row r="6360" spans="2:2">
       <c r="B6360" s="2"/>
     </row>
-    <row r="6361" spans="1:2">
-      <c r="A6361" s="2" t="s">
-        <v>5982</v>
-      </c>
+    <row r="6361" spans="2:2">
       <c r="B6361" s="2"/>
     </row>
-    <row r="6362" spans="1:2">
-      <c r="A6362" s="2" t="s">
-        <v>5983</v>
-      </c>
+    <row r="6362" spans="2:2">
       <c r="B6362" s="2"/>
     </row>
-    <row r="6363" spans="1:2">
-      <c r="A6363" s="2" t="s">
-        <v>5984</v>
-      </c>
+    <row r="6363" spans="2:2">
       <c r="B6363" s="2"/>
     </row>
-    <row r="6364" spans="1:2">
-      <c r="A6364" s="2" t="s">
-        <v>1396</v>
-      </c>
+    <row r="6364" spans="2:2">
       <c r="B6364" s="2"/>
     </row>
-    <row r="6365" spans="1:2">
-      <c r="A6365" s="2" t="s">
-        <v>5985</v>
-      </c>
+    <row r="6365" spans="2:2">
       <c r="B6365" s="2"/>
     </row>
-    <row r="6366" spans="1:2">
-      <c r="A6366" s="2" t="s">
-        <v>5986</v>
-      </c>
+    <row r="6366" spans="2:2">
       <c r="B6366" s="2"/>
     </row>
-    <row r="6367" spans="1:2">
-      <c r="A6367" s="2" t="s">
-        <v>5987</v>
-      </c>
+    <row r="6367" spans="2:2">
       <c r="B6367" s="2"/>
     </row>
-    <row r="6368" spans="1:2">
-      <c r="A6368" s="2" t="s">
-        <v>5988</v>
-      </c>
+    <row r="6368" spans="2:2">
       <c r="B6368" s="2"/>
     </row>
-    <row r="6369" spans="1:2">
-      <c r="A6369" s="2" t="s">
-        <v>5989</v>
-      </c>
+    <row r="6369" spans="2:2">
       <c r="B6369" s="2"/>
     </row>
-    <row r="6370" spans="1:2">
-      <c r="A6370" s="2" t="s">
-        <v>5990</v>
-      </c>
+    <row r="6370" spans="2:2">
       <c r="B6370" s="2"/>
     </row>
-    <row r="6371" spans="1:2">
-      <c r="A6371" s="2" t="s">
-        <v>5991</v>
-      </c>
+    <row r="6371" spans="2:2">
       <c r="B6371" s="2"/>
     </row>
-    <row r="6372" spans="1:2">
-      <c r="A6372" s="2" t="s">
-        <v>5992</v>
-      </c>
+    <row r="6372" spans="2:2">
       <c r="B6372" s="2"/>
     </row>
-    <row r="6373" spans="1:2">
-      <c r="A6373" s="2" t="s">
-        <v>5993</v>
-      </c>
+    <row r="6373" spans="2:2">
       <c r="B6373" s="2"/>
     </row>
-    <row r="6374" spans="1:2">
-      <c r="A6374" s="2" t="s">
-        <v>5994</v>
-      </c>
+    <row r="6374" spans="2:2">
       <c r="B6374" s="2"/>
     </row>
-    <row r="6375" spans="1:2">
-      <c r="A6375" s="2" t="s">
-        <v>5995</v>
-      </c>
+    <row r="6375" spans="2:2">
       <c r="B6375" s="2"/>
     </row>
-    <row r="6376" spans="1:2">
-      <c r="A6376" s="2" t="s">
-        <v>5996</v>
-      </c>
+    <row r="6376" spans="2:2">
       <c r="B6376" s="2"/>
     </row>
-    <row r="6377" spans="1:2">
-      <c r="A6377" s="2" t="s">
-        <v>5997</v>
-      </c>
+    <row r="6377" spans="2:2">
       <c r="B6377" s="2"/>
     </row>
-    <row r="6378" spans="1:2">
-      <c r="A6378" s="2" t="s">
-        <v>5998</v>
-      </c>
+    <row r="6378" spans="2:2">
       <c r="B6378" s="2"/>
     </row>
-    <row r="6379" spans="1:2">
-      <c r="A6379" s="2" t="s">
-        <v>5999</v>
-      </c>
+    <row r="6379" spans="2:2">
       <c r="B6379" s="2"/>
     </row>
-    <row r="6380" spans="1:2">
-      <c r="A6380" s="2" t="s">
-        <v>6000</v>
-      </c>
+    <row r="6380" spans="2:2">
       <c r="B6380" s="2"/>
     </row>
-    <row r="6381" spans="1:2">
-      <c r="A6381" s="2" t="s">
-        <v>6001</v>
-      </c>
+    <row r="6381" spans="2:2">
       <c r="B6381" s="2"/>
     </row>
-    <row r="6382" spans="1:2">
-      <c r="A6382" s="2" t="s">
-        <v>6002</v>
-      </c>
+    <row r="6382" spans="2:2">
       <c r="B6382" s="2"/>
     </row>
-    <row r="6383" spans="1:2">
-      <c r="A6383" s="2" t="s">
-        <v>6003</v>
-      </c>
+    <row r="6383" spans="2:2">
       <c r="B6383" s="2"/>
     </row>
-    <row r="6384" spans="1:2">
-      <c r="A6384" s="2" t="s">
-        <v>6004</v>
-      </c>
+    <row r="6384" spans="2:2">
       <c r="B6384" s="2"/>
     </row>
-    <row r="6385" spans="1:2">
-      <c r="A6385" s="2" t="s">
-        <v>6005</v>
-      </c>
+    <row r="6385" spans="2:2">
       <c r="B6385" s="2"/>
     </row>
-    <row r="6386" spans="1:2">
-      <c r="A6386" s="2" t="s">
-        <v>6006</v>
-      </c>
+    <row r="6386" spans="2:2">
       <c r="B6386" s="2"/>
     </row>
-    <row r="6387" spans="1:2">
-      <c r="A6387" s="2" t="s">
-        <v>6007</v>
-      </c>
+    <row r="6387" spans="2:2">
       <c r="B6387" s="2"/>
     </row>
-    <row r="6388" spans="1:2">
-      <c r="A6388" s="2" t="s">
-        <v>6008</v>
-      </c>
+    <row r="6388" spans="2:2">
       <c r="B6388" s="2"/>
     </row>
-    <row r="6389" spans="1:2">
-      <c r="A6389" s="2" t="s">
-        <v>6009</v>
-      </c>
+    <row r="6389" spans="2:2">
       <c r="B6389" s="2"/>
     </row>
-    <row r="6390" spans="1:2">
-      <c r="A6390" s="2" t="s">
-        <v>6010</v>
-      </c>
+    <row r="6390" spans="2:2">
       <c r="B6390" s="2"/>
     </row>
-    <row r="6391" spans="1:2">
-      <c r="A6391" s="2" t="s">
-        <v>6011</v>
-      </c>
+    <row r="6391" spans="2:2">
       <c r="B6391" s="2"/>
     </row>
-    <row r="6392" spans="1:2">
-      <c r="A6392" s="2" t="s">
-        <v>6012</v>
-      </c>
+    <row r="6392" spans="2:2">
       <c r="B6392" s="2"/>
     </row>
-    <row r="6393" spans="1:2">
-      <c r="A6393" s="2" t="s">
-        <v>6013</v>
-      </c>
+    <row r="6393" spans="2:2">
       <c r="B6393" s="2"/>
     </row>
-    <row r="6394" spans="1:2">
-      <c r="A6394" s="2" t="s">
-        <v>6014</v>
-      </c>
+    <row r="6394" spans="2:2">
       <c r="B6394" s="2"/>
     </row>
-    <row r="6395" spans="1:2">
-      <c r="A6395" s="2" t="s">
-        <v>6015</v>
-      </c>
+    <row r="6395" spans="2:2">
       <c r="B6395" s="2"/>
     </row>
-    <row r="6396" spans="1:2">
-      <c r="A6396" s="2" t="s">
-        <v>6016</v>
-      </c>
+    <row r="6396" spans="2:2">
       <c r="B6396" s="2"/>
     </row>
-    <row r="6397" spans="1:2">
-      <c r="A6397" s="2" t="s">
-        <v>6017</v>
-      </c>
+    <row r="6397" spans="2:2">
       <c r="B6397" s="2"/>
     </row>
-    <row r="6398" spans="1:2">
-      <c r="A6398" s="2" t="s">
-        <v>6018</v>
-      </c>
+    <row r="6398" spans="2:2">
       <c r="B6398" s="2"/>
     </row>
-    <row r="6399" spans="1:2">
-      <c r="A6399" s="2" t="s">
-        <v>6019</v>
-      </c>
+    <row r="6399" spans="2:2">
       <c r="B6399" s="2"/>
     </row>
-    <row r="6400" spans="1:2">
-      <c r="A6400" s="2" t="s">
-        <v>6020</v>
-      </c>
+    <row r="6400" spans="2:2">
       <c r="B6400" s="2"/>
     </row>
-    <row r="6401" spans="1:2">
-      <c r="A6401" s="2" t="s">
-        <v>6021</v>
-      </c>
+    <row r="6401" spans="2:2">
       <c r="B6401" s="2"/>
     </row>
-    <row r="6402" spans="1:2">
-      <c r="A6402" s="2" t="s">
-        <v>6022</v>
-      </c>
+    <row r="6402" spans="2:2">
       <c r="B6402" s="2"/>
     </row>
-    <row r="6403" spans="1:2">
-      <c r="A6403" s="2" t="s">
-        <v>6023</v>
-      </c>
+    <row r="6403" spans="2:2">
       <c r="B6403" s="2"/>
     </row>
-    <row r="6404" spans="1:2">
-      <c r="A6404" s="2" t="s">
-        <v>6024</v>
-      </c>
+    <row r="6404" spans="2:2">
       <c r="B6404" s="2"/>
     </row>
-    <row r="6405" spans="1:2">
-      <c r="A6405" s="2" t="s">
-        <v>6025</v>
-      </c>
+    <row r="6405" spans="2:2">
       <c r="B6405" s="2"/>
     </row>
-    <row r="6406" spans="1:2">
-      <c r="A6406" s="2" t="s">
-        <v>6026</v>
-      </c>
+    <row r="6406" spans="2:2">
       <c r="B6406" s="2"/>
     </row>
-    <row r="6407" spans="1:2">
-      <c r="A6407" s="2" t="s">
-        <v>6027</v>
-      </c>
+    <row r="6407" spans="2:2">
       <c r="B6407" s="2"/>
     </row>
-    <row r="6408" spans="1:2">
-      <c r="A6408" s="2" t="s">
-        <v>6028</v>
-      </c>
+    <row r="6408" spans="2:2">
       <c r="B6408" s="2"/>
     </row>
-    <row r="6409" spans="1:2">
-      <c r="A6409" s="2" t="s">
-        <v>6029</v>
-      </c>
+    <row r="6409" spans="2:2">
       <c r="B6409" s="2"/>
     </row>
-    <row r="6410" spans="1:2">
-      <c r="A6410" s="2" t="s">
-        <v>6030</v>
-      </c>
+    <row r="6410" spans="2:2">
       <c r="B6410" s="2"/>
     </row>
-    <row r="6411" spans="1:2">
-      <c r="A6411" s="2" t="s">
-        <v>6031</v>
-      </c>
+    <row r="6411" spans="2:2">
       <c r="B6411" s="2"/>
     </row>
-    <row r="6412" spans="1:2">
-      <c r="A6412" s="2" t="s">
-        <v>6032</v>
-      </c>
+    <row r="6412" spans="2:2">
       <c r="B6412" s="2"/>
     </row>
-    <row r="6413" spans="1:2">
-      <c r="A6413" s="2" t="s">
-        <v>6033</v>
-      </c>
+    <row r="6413" spans="2:2">
       <c r="B6413" s="2"/>
     </row>
-    <row r="6414" spans="1:2">
-      <c r="A6414" s="2" t="s">
-        <v>6034</v>
-      </c>
+    <row r="6414" spans="2:2">
       <c r="B6414" s="2"/>
     </row>
-    <row r="6415" spans="1:2">
-      <c r="A6415" s="2" t="s">
-        <v>6035</v>
-      </c>
+    <row r="6415" spans="2:2">
       <c r="B6415" s="2"/>
     </row>
-    <row r="6416" spans="1:2">
-      <c r="A6416" s="2" t="s">
-        <v>6036</v>
-      </c>
+    <row r="6416" spans="2:2">
       <c r="B6416" s="2"/>
     </row>
-    <row r="6417" spans="1:2">
-      <c r="A6417" s="2" t="s">
-        <v>6037</v>
-      </c>
+    <row r="6417" spans="2:2">
       <c r="B6417" s="2"/>
     </row>
-    <row r="6418" spans="1:2">
-      <c r="A6418" s="2" t="s">
-        <v>6038</v>
-      </c>
+    <row r="6418" spans="2:2">
       <c r="B6418" s="2"/>
     </row>
-    <row r="6419" spans="1:2">
-      <c r="A6419" s="2" t="s">
-        <v>6039</v>
-      </c>
+    <row r="6419" spans="2:2">
       <c r="B6419" s="2"/>
     </row>
-    <row r="6420" spans="1:2">
-      <c r="A6420" s="2" t="s">
-        <v>6040</v>
-      </c>
+    <row r="6420" spans="2:2">
       <c r="B6420" s="2"/>
     </row>
-    <row r="6421" spans="1:2">
-      <c r="A6421" s="2" t="s">
-        <v>6041</v>
-      </c>
+    <row r="6421" spans="2:2">
       <c r="B6421" s="2"/>
     </row>
-    <row r="6422" spans="1:2">
-      <c r="A6422" s="2" t="s">
-        <v>6042</v>
-      </c>
+    <row r="6422" spans="2:2">
       <c r="B6422" s="2"/>
     </row>
-    <row r="6423" spans="1:2">
-      <c r="A6423" s="2" t="s">
-        <v>6043</v>
-      </c>
+    <row r="6423" spans="2:2">
       <c r="B6423" s="2"/>
     </row>
-    <row r="6424" spans="1:2">
-      <c r="A6424" s="2" t="s">
-        <v>6044</v>
-      </c>
+    <row r="6424" spans="2:2">
       <c r="B6424" s="2"/>
     </row>
-    <row r="6425" spans="1:2">
-      <c r="A6425" s="2" t="s">
-        <v>6045</v>
-      </c>
+    <row r="6425" spans="2:2">
       <c r="B6425" s="2"/>
     </row>
-    <row r="6426" spans="1:2">
-      <c r="A6426" s="2" t="s">
-        <v>6046</v>
-      </c>
+    <row r="6426" spans="2:2">
       <c r="B6426" s="2"/>
     </row>
-    <row r="6427" spans="1:2">
-      <c r="A6427" s="2" t="s">
-        <v>6047</v>
-      </c>
+    <row r="6427" spans="2:2">
       <c r="B6427" s="2"/>
     </row>
-    <row r="6428" spans="1:2">
-      <c r="A6428" s="2" t="s">
-        <v>6048</v>
-      </c>
+    <row r="6428" spans="2:2">
       <c r="B6428" s="2"/>
     </row>
-    <row r="6429" spans="1:2">
-      <c r="A6429" s="2" t="s">
-        <v>6049</v>
-      </c>
+    <row r="6429" spans="2:2">
       <c r="B6429" s="2"/>
     </row>
-    <row r="6430" spans="1:2">
-      <c r="A6430" s="2" t="s">
-        <v>6050</v>
-      </c>
+    <row r="6430" spans="2:2">
       <c r="B6430" s="2"/>
     </row>
-    <row r="6431" spans="1:2">
-      <c r="A6431" s="2" t="s">
-        <v>6051</v>
-      </c>
+    <row r="6431" spans="2:2">
       <c r="B6431" s="2"/>
     </row>
-    <row r="6432" spans="1:2">
-      <c r="A6432" s="2" t="s">
-        <v>6052</v>
-      </c>
+    <row r="6432" spans="2:2">
       <c r="B6432" s="2"/>
     </row>
-    <row r="6433" spans="1:2">
-      <c r="A6433" s="2" t="s">
-        <v>6053</v>
-      </c>
+    <row r="6433" spans="2:2">
       <c r="B6433" s="2"/>
     </row>
-    <row r="6434" spans="1:2">
-      <c r="A6434" s="2" t="s">
-        <v>6054</v>
-      </c>
+    <row r="6434" spans="2:2">
       <c r="B6434" s="2"/>
     </row>
-    <row r="6435" spans="1:2">
-      <c r="A6435" s="2" t="s">
-        <v>6055</v>
-      </c>
+    <row r="6435" spans="2:2">
       <c r="B6435" s="2"/>
     </row>
-    <row r="6436" spans="1:2">
-      <c r="A6436" s="2" t="s">
-        <v>6056</v>
-      </c>
+    <row r="6436" spans="2:2">
       <c r="B6436" s="2"/>
     </row>
-    <row r="6437" spans="1:2">
-      <c r="A6437" s="2" t="s">
-        <v>6057</v>
-      </c>
+    <row r="6437" spans="2:2">
       <c r="B6437" s="2"/>
     </row>
-    <row r="6438" spans="1:2">
-      <c r="A6438" s="2" t="s">
-        <v>6058</v>
-      </c>
+    <row r="6438" spans="2:2">
       <c r="B6438" s="2"/>
     </row>
-    <row r="6439" spans="1:2">
-      <c r="A6439" s="2" t="s">
-        <v>6059</v>
-      </c>
+    <row r="6439" spans="2:2">
       <c r="B6439" s="2"/>
     </row>
-    <row r="6440" spans="1:2">
-      <c r="A6440" s="2" t="s">
-        <v>6060</v>
-      </c>
+    <row r="6440" spans="2:2">
       <c r="B6440" s="2"/>
     </row>
-    <row r="6441" spans="1:2">
-      <c r="A6441" s="2" t="s">
-        <v>6061</v>
-      </c>
+    <row r="6441" spans="2:2">
       <c r="B6441" s="2"/>
     </row>
-    <row r="6442" spans="1:2">
-      <c r="A6442" s="2" t="s">
-        <v>6062</v>
-      </c>
+    <row r="6442" spans="2:2">
       <c r="B6442" s="2"/>
     </row>
-    <row r="6443" spans="1:2">
-      <c r="A6443" s="2" t="s">
-        <v>6063</v>
-      </c>
+    <row r="6443" spans="2:2">
       <c r="B6443" s="2"/>
     </row>
-    <row r="6444" spans="1:2">
-      <c r="A6444" s="2" t="s">
-        <v>6064</v>
-      </c>
+    <row r="6444" spans="2:2">
       <c r="B6444" s="2"/>
     </row>
-    <row r="6445" spans="1:2">
-      <c r="A6445" s="2" t="s">
-        <v>6065</v>
-      </c>
+    <row r="6445" spans="2:2">
       <c r="B6445" s="2"/>
     </row>
-    <row r="6446" spans="1:2">
-      <c r="A6446" s="2" t="s">
-        <v>6066</v>
-      </c>
+    <row r="6446" spans="2:2">
       <c r="B6446" s="2"/>
     </row>
-    <row r="6447" spans="1:2">
-      <c r="A6447" s="2" t="s">
-        <v>6067</v>
-      </c>
+    <row r="6447" spans="2:2">
       <c r="B6447" s="2"/>
     </row>
-    <row r="6448" spans="1:2">
-      <c r="A6448" s="2" t="s">
-        <v>6068</v>
-      </c>
+    <row r="6448" spans="2:2">
       <c r="B6448" s="2"/>
     </row>
-    <row r="6449" spans="1:2">
-      <c r="A6449" s="2" t="s">
-        <v>6069</v>
-      </c>
+    <row r="6449" spans="2:2">
       <c r="B6449" s="2"/>
     </row>
-    <row r="6450" spans="1:2">
-      <c r="A6450" t="s">
-        <v>6070</v>
-      </c>
+    <row r="6450" spans="2:2">
       <c r="B6450" s="2"/>
     </row>
-    <row r="6451" spans="1:2">
-      <c r="A6451" s="2" t="s">
-        <v>6071</v>
-      </c>
+    <row r="6451" spans="2:2">
       <c r="B6451" s="2"/>
     </row>
-    <row r="6452" spans="1:2">
-      <c r="A6452" s="2" t="s">
-        <v>6072</v>
-      </c>
+    <row r="6452" spans="2:2">
       <c r="B6452" s="2"/>
     </row>
-    <row r="6453" spans="1:2">
-      <c r="A6453" s="2" t="s">
-        <v>6073</v>
-      </c>
+    <row r="6453" spans="2:2">
       <c r="B6453" s="2"/>
     </row>
-    <row r="6454" spans="1:2">
-      <c r="A6454" s="2" t="s">
-        <v>6074</v>
-      </c>
+    <row r="6454" spans="2:2">
       <c r="B6454" s="2"/>
     </row>
-    <row r="6455" spans="1:2">
-      <c r="A6455" s="2" t="s">
-        <v>6075</v>
-      </c>
+    <row r="6455" spans="2:2">
       <c r="B6455" s="2"/>
     </row>
-    <row r="6456" spans="1:2">
-      <c r="A6456" s="2" t="s">
-        <v>6076</v>
-      </c>
+    <row r="6456" spans="2:2">
       <c r="B6456" s="2"/>
     </row>
-    <row r="6457" spans="1:2">
-      <c r="A6457" s="2" t="s">
-        <v>6077</v>
-      </c>
+    <row r="6457" spans="2:2">
       <c r="B6457" s="2"/>
     </row>
-    <row r="6458" spans="1:2">
-      <c r="A6458" s="2" t="s">
-        <v>6078</v>
-      </c>
+    <row r="6458" spans="2:2">
       <c r="B6458" s="2"/>
     </row>
-    <row r="6459" spans="1:2">
-      <c r="A6459" s="2" t="s">
-        <v>6079</v>
-      </c>
+    <row r="6459" spans="2:2">
       <c r="B6459" s="2"/>
     </row>
-    <row r="6460" spans="1:2">
-      <c r="A6460" s="2" t="s">
-        <v>6080</v>
-      </c>
+    <row r="6460" spans="2:2">
       <c r="B6460" s="2"/>
     </row>
-    <row r="6461" spans="1:2">
-      <c r="A6461" t="s">
-        <v>6081</v>
-      </c>
+    <row r="6461" spans="2:2">
       <c r="B6461" s="2"/>
     </row>
-    <row r="6462" spans="1:2">
-      <c r="A6462" t="s">
-        <v>6082</v>
-      </c>
+    <row r="6462" spans="2:2">
       <c r="B6462" s="2"/>
     </row>
-    <row r="6463" spans="1:2">
-      <c r="A6463" t="s">
-        <v>6083</v>
-      </c>
+    <row r="6463" spans="2:2">
       <c r="B6463" s="2"/>
     </row>
-    <row r="6464" spans="1:2">
-      <c r="A6464" t="s">
-        <v>6084</v>
-      </c>
+    <row r="6464" spans="2:2">
       <c r="B6464" s="2"/>
     </row>
-    <row r="6465" spans="1:2">
-      <c r="A6465" t="s">
-        <v>6085</v>
-      </c>
+    <row r="6465" spans="2:2">
       <c r="B6465" s="2"/>
     </row>
-    <row r="6466" spans="1:2">
-      <c r="A6466" t="s">
-        <v>6086</v>
-      </c>
+    <row r="6466" spans="2:2">
       <c r="B6466" s="2"/>
     </row>
-    <row r="6467" spans="1:2">
-      <c r="A6467" t="s">
-        <v>6087</v>
-      </c>
+    <row r="6467" spans="2:2">
       <c r="B6467" s="2"/>
     </row>
-    <row r="6468" spans="1:2">
-      <c r="A6468" t="s">
-        <v>6088</v>
-      </c>
+    <row r="6468" spans="2:2">
       <c r="B6468" s="2"/>
     </row>
-    <row r="6469" spans="1:2">
-      <c r="A6469" t="s">
-        <v>6089</v>
-      </c>
+    <row r="6469" spans="2:2">
       <c r="B6469" s="2"/>
     </row>
-    <row r="6470" spans="1:2">
-      <c r="A6470" t="s">
-        <v>6090</v>
-      </c>
+    <row r="6470" spans="2:2">
       <c r="B6470" s="2"/>
     </row>
-    <row r="6471" spans="1:2">
-      <c r="A6471" t="s">
-        <v>6091</v>
-      </c>
+    <row r="6471" spans="2:2">
       <c r="B6471" s="2"/>
     </row>
-    <row r="6472" spans="1:2">
-      <c r="A6472" t="s">
-        <v>6092</v>
-      </c>
+    <row r="6472" spans="2:2">
       <c r="B6472" s="2"/>
     </row>
-    <row r="6473" spans="1:2">
-      <c r="A6473" t="s">
-        <v>6093</v>
-      </c>
+    <row r="6473" spans="2:2">
       <c r="B6473" s="2"/>
     </row>
-    <row r="6474" spans="1:2">
-      <c r="A6474" t="s">
-        <v>6094</v>
-      </c>
+    <row r="6474" spans="2:2">
       <c r="B6474" s="2"/>
     </row>
-    <row r="6475" spans="1:2">
-      <c r="A6475" t="s">
-        <v>6095</v>
-      </c>
+    <row r="6475" spans="2:2">
       <c r="B6475" s="2"/>
     </row>
-    <row r="6476" spans="1:2">
-      <c r="A6476" t="s">
-        <v>6096</v>
-      </c>
+    <row r="6476" spans="2:2">
       <c r="B6476" s="2"/>
     </row>
-    <row r="6477" spans="1:2">
-      <c r="A6477" t="s">
-        <v>6097</v>
-      </c>
+    <row r="6477" spans="2:2">
       <c r="B6477" s="2"/>
     </row>
-    <row r="6478" spans="1:2">
-      <c r="A6478" t="s">
-        <v>6098</v>
-      </c>
+    <row r="6478" spans="2:2">
       <c r="B6478" s="2"/>
     </row>
-    <row r="6479" spans="1:2">
-      <c r="A6479" t="s">
-        <v>6099</v>
-      </c>
+    <row r="6479" spans="2:2">
       <c r="B6479" s="2"/>
     </row>
-    <row r="6480" spans="1:2">
-      <c r="A6480" t="s">
-        <v>6100</v>
-      </c>
+    <row r="6480" spans="2:2">
       <c r="B6480" s="2"/>
     </row>
     <row r="6481" spans="1:2">
-      <c r="A6481" t="s">
-        <v>6101</v>
-      </c>
       <c r="B6481" s="2"/>
     </row>
     <row r="6482" spans="1:2">
-      <c r="A6482" t="s">
-        <v>6102</v>
-      </c>
       <c r="B6482" s="2"/>
     </row>
     <row r="6483" spans="1:2" ht="14">
@@ -60629,4 +59916,1210 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:B238"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B238"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" s="2" t="s">
+        <v>5868</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="2" t="s">
+        <v>5869</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="2" t="s">
+        <v>5870</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="2" t="s">
+        <v>5871</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="2" t="s">
+        <v>5872</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="2" t="s">
+        <v>5873</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="2" t="s">
+        <v>5874</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="2" t="s">
+        <v>5875</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="2" t="s">
+        <v>5876</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="2" t="s">
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="2" t="s">
+        <v>5878</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="2" t="s">
+        <v>5879</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="2" t="s">
+        <v>5880</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="2" t="s">
+        <v>5881</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="2" t="s">
+        <v>5882</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="2" t="s">
+        <v>5883</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="2" t="s">
+        <v>5884</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="2" t="s">
+        <v>5885</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="2" t="s">
+        <v>5886</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="2" t="s">
+        <v>5887</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="2" t="s">
+        <v>5888</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="2" t="s">
+        <v>5889</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="2" t="s">
+        <v>5890</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="2" t="s">
+        <v>5891</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="2" t="s">
+        <v>5892</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="2" t="s">
+        <v>5893</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="2" t="s">
+        <v>5894</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="2" t="s">
+        <v>5895</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="2" t="s">
+        <v>5896</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="2" t="s">
+        <v>5897</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="2" t="s">
+        <v>5898</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="2" t="s">
+        <v>5899</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="2" t="s">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="2" t="s">
+        <v>5901</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="2" t="s">
+        <v>5902</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="2" t="s">
+        <v>5903</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="2" t="s">
+        <v>5904</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="2" t="s">
+        <v>5905</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="2" t="s">
+        <v>5906</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="2" t="s">
+        <v>4872</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="2" t="s">
+        <v>5907</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="2" t="s">
+        <v>5908</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="2" t="s">
+        <v>5909</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="2" t="s">
+        <v>5910</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="2" t="s">
+        <v>5911</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="2" t="s">
+        <v>5912</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="2" t="s">
+        <v>5913</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="2" t="s">
+        <v>5914</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="2" t="s">
+        <v>5915</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="2" t="s">
+        <v>5916</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="2" t="s">
+        <v>5917</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="2" t="s">
+        <v>5918</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="2" t="s">
+        <v>5919</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="2" t="s">
+        <v>5920</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="2" t="s">
+        <v>5921</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="2" t="s">
+        <v>5922</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="2" t="s">
+        <v>5923</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="2" t="s">
+        <v>5924</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="2" t="s">
+        <v>5925</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="2" t="s">
+        <v>5926</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="2" t="s">
+        <v>5927</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="2" t="s">
+        <v>5928</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="2" t="s">
+        <v>5929</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="2" t="s">
+        <v>5930</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="2" t="s">
+        <v>5931</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="2" t="s">
+        <v>5932</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="2" t="s">
+        <v>3742</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="2" t="s">
+        <v>5933</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="2" t="s">
+        <v>5934</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="2" t="s">
+        <v>5935</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="2" t="s">
+        <v>5936</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="2" t="s">
+        <v>5937</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="2" t="s">
+        <v>5938</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="2" t="s">
+        <v>5939</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="2" t="s">
+        <v>5940</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="2" t="s">
+        <v>5941</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="2" t="s">
+        <v>5942</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="2" t="s">
+        <v>5943</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="2" t="s">
+        <v>5944</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="2" t="s">
+        <v>5945</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="2" t="s">
+        <v>5946</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="2" t="s">
+        <v>5947</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="2" t="s">
+        <v>5948</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="2" t="s">
+        <v>5949</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="2" t="s">
+        <v>5950</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="2" t="s">
+        <v>5951</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="2" t="s">
+        <v>5952</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="2" t="s">
+        <v>5953</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="2" t="s">
+        <v>5954</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="2" t="s">
+        <v>5955</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="2" t="s">
+        <v>5956</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="2" t="s">
+        <v>5957</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="2" t="s">
+        <v>5958</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" s="2" t="s">
+        <v>5959</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="2" t="s">
+        <v>5960</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="2" t="s">
+        <v>5961</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="2" t="s">
+        <v>5962</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="2" t="s">
+        <v>5963</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="2" t="s">
+        <v>5964</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="2" t="s">
+        <v>5965</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="2" t="s">
+        <v>5966</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="2" t="s">
+        <v>5967</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="2" t="s">
+        <v>5968</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="2" t="s">
+        <v>5969</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" s="2" t="s">
+        <v>5970</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="2" t="s">
+        <v>5971</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="2" t="s">
+        <v>5972</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="2" t="s">
+        <v>5973</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" s="2" t="s">
+        <v>5974</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="2" t="s">
+        <v>5975</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" s="2" t="s">
+        <v>5976</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" s="2" t="s">
+        <v>5977</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="2" t="s">
+        <v>5978</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="2" t="s">
+        <v>5979</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="2" t="s">
+        <v>5980</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="2" t="s">
+        <v>5981</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="2" t="s">
+        <v>5982</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="2" t="s">
+        <v>5983</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="2" t="s">
+        <v>5984</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" s="2" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" s="2" t="s">
+        <v>5985</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="2" t="s">
+        <v>5986</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" s="2" t="s">
+        <v>5987</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" s="2" t="s">
+        <v>5988</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" s="2" t="s">
+        <v>5989</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="2" t="s">
+        <v>5990</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" s="2" t="s">
+        <v>5991</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" s="2" t="s">
+        <v>5992</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="2" t="s">
+        <v>5993</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="2" t="s">
+        <v>5994</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="2" t="s">
+        <v>5995</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="2" t="s">
+        <v>5996</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="2" t="s">
+        <v>5997</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="2" t="s">
+        <v>5998</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" s="2" t="s">
+        <v>5999</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" s="2" t="s">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" s="2" t="s">
+        <v>6001</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" s="2" t="s">
+        <v>6002</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" s="2" t="s">
+        <v>6003</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" s="2" t="s">
+        <v>6004</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" s="2" t="s">
+        <v>6005</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142" s="2" t="s">
+        <v>6006</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" s="2" t="s">
+        <v>6007</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144" s="2" t="s">
+        <v>6008</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" s="2" t="s">
+        <v>6009</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" s="2" t="s">
+        <v>6010</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" s="2" t="s">
+        <v>6011</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" s="2" t="s">
+        <v>6012</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" s="2" t="s">
+        <v>6013</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" s="2" t="s">
+        <v>6014</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" s="2" t="s">
+        <v>6015</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152" s="2" t="s">
+        <v>6016</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2">
+      <c r="B153" s="2" t="s">
+        <v>6017</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154" s="2" t="s">
+        <v>6018</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2">
+      <c r="B155" s="2" t="s">
+        <v>6019</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2">
+      <c r="B156" s="2" t="s">
+        <v>6020</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2">
+      <c r="B157" s="2" t="s">
+        <v>6021</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2">
+      <c r="B158" s="2" t="s">
+        <v>6022</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2">
+      <c r="B159" s="2" t="s">
+        <v>6023</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2">
+      <c r="B160" s="2" t="s">
+        <v>6024</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2">
+      <c r="B161" s="2" t="s">
+        <v>6025</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2">
+      <c r="B162" s="2" t="s">
+        <v>6026</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2">
+      <c r="B163" s="2" t="s">
+        <v>6027</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2">
+      <c r="B164" s="2" t="s">
+        <v>6028</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2">
+      <c r="B165" s="2" t="s">
+        <v>6029</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2">
+      <c r="B166" s="2" t="s">
+        <v>6030</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2">
+      <c r="B167" s="2" t="s">
+        <v>6031</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2">
+      <c r="B168" s="2" t="s">
+        <v>6032</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2">
+      <c r="B169" s="2" t="s">
+        <v>6033</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2">
+      <c r="B170" s="2" t="s">
+        <v>6034</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2">
+      <c r="B171" s="2" t="s">
+        <v>6035</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2">
+      <c r="B172" s="2" t="s">
+        <v>6036</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2">
+      <c r="B173" s="2" t="s">
+        <v>6037</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2">
+      <c r="B174" s="2" t="s">
+        <v>6038</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2">
+      <c r="B175" s="2" t="s">
+        <v>6039</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2">
+      <c r="B176" s="2" t="s">
+        <v>6040</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2">
+      <c r="B177" s="2" t="s">
+        <v>6041</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2">
+      <c r="B178" s="2" t="s">
+        <v>6042</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2">
+      <c r="B179" s="2" t="s">
+        <v>6043</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2">
+      <c r="B180" s="2" t="s">
+        <v>6044</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2">
+      <c r="B181" s="2" t="s">
+        <v>6045</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2">
+      <c r="B182" s="2" t="s">
+        <v>6046</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2">
+      <c r="B183" s="2" t="s">
+        <v>6047</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2">
+      <c r="B184" s="2" t="s">
+        <v>6048</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2">
+      <c r="B185" s="2" t="s">
+        <v>6049</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2">
+      <c r="B186" s="2" t="s">
+        <v>6050</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2">
+      <c r="B187" s="2" t="s">
+        <v>6051</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2">
+      <c r="B188" s="2" t="s">
+        <v>6052</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2">
+      <c r="B189" s="2" t="s">
+        <v>6053</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2">
+      <c r="B190" s="2" t="s">
+        <v>6054</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2">
+      <c r="B191" s="2" t="s">
+        <v>6055</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2">
+      <c r="B192" s="2" t="s">
+        <v>6056</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2">
+      <c r="B193" s="2" t="s">
+        <v>6057</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2">
+      <c r="B194" s="2" t="s">
+        <v>6058</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2">
+      <c r="B195" s="2" t="s">
+        <v>6059</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2">
+      <c r="B196" s="2" t="s">
+        <v>6060</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2">
+      <c r="B197" s="2" t="s">
+        <v>6061</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2">
+      <c r="B198" s="2" t="s">
+        <v>6062</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2">
+      <c r="B199" s="2" t="s">
+        <v>6063</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2">
+      <c r="B200" s="2" t="s">
+        <v>6064</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2">
+      <c r="B201" s="2" t="s">
+        <v>6065</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2">
+      <c r="B202" s="2" t="s">
+        <v>6066</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2">
+      <c r="B203" s="2" t="s">
+        <v>6067</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2">
+      <c r="B204" s="2" t="s">
+        <v>6068</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2">
+      <c r="B205" s="2" t="s">
+        <v>6069</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2">
+      <c r="B206" t="s">
+        <v>6070</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2">
+      <c r="B207" s="2" t="s">
+        <v>6071</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2">
+      <c r="B208" s="2" t="s">
+        <v>6072</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2">
+      <c r="B209" s="2" t="s">
+        <v>6073</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2">
+      <c r="B210" s="2" t="s">
+        <v>6074</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2">
+      <c r="B211" s="2" t="s">
+        <v>6075</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2">
+      <c r="B212" s="2" t="s">
+        <v>6076</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2">
+      <c r="B213" s="2" t="s">
+        <v>6077</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2">
+      <c r="B214" s="2" t="s">
+        <v>6078</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2">
+      <c r="B215" s="2" t="s">
+        <v>6079</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2">
+      <c r="B216" s="2" t="s">
+        <v>6080</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2">
+      <c r="B217" t="s">
+        <v>6081</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2">
+      <c r="B218" t="s">
+        <v>6082</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2">
+      <c r="B219" t="s">
+        <v>6083</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2">
+      <c r="B220" t="s">
+        <v>6084</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2">
+      <c r="B221" t="s">
+        <v>6085</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2">
+      <c r="B222" t="s">
+        <v>6086</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2">
+      <c r="B223" t="s">
+        <v>6087</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2">
+      <c r="B224" t="s">
+        <v>6088</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2">
+      <c r="B225" t="s">
+        <v>6089</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2">
+      <c r="B226" t="s">
+        <v>6090</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2">
+      <c r="B227" t="s">
+        <v>6091</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2">
+      <c r="B228" t="s">
+        <v>6092</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2">
+      <c r="B229" t="s">
+        <v>6093</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2">
+      <c r="B230" t="s">
+        <v>6094</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2">
+      <c r="B231" t="s">
+        <v>6095</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2">
+      <c r="B232" t="s">
+        <v>6096</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2">
+      <c r="B233" t="s">
+        <v>6097</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2">
+      <c r="B234" t="s">
+        <v>6098</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2">
+      <c r="B235" t="s">
+        <v>6099</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2">
+      <c r="B236" t="s">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2">
+      <c r="B237" t="s">
+        <v>6101</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2">
+      <c r="B238" t="s">
+        <v>6102</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>